--- a/output/bivariate/children/wasting_ch_bivariate_diff.xlsx
+++ b/output/bivariate/children/wasting_ch_bivariate_diff.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.300000000000001</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.5</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.9</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.8</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.9</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.4</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="4">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="5">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.800000000000001</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="3">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.8</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="3">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.9</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="4">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.6</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="5">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.1</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.800000000000001</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.699999999999999</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="3">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.4</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="3">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.199999999999999</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="4">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.9</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="3">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.4</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="4">

--- a/output/bivariate/children/wasting_ch_bivariate_diff.xlsx
+++ b/output/bivariate/children/wasting_ch_bivariate_diff.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36.6</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.9</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28.9</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31.8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="4">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46.1</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="5">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.1</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="3">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.5</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="3">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="4">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="5">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36.6</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31.4</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.3</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="3">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37.9</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="4">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="3">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
